--- a/ImportMST.xlsx
+++ b/ImportMST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trucpham/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trucpham/Desktop/Nodejs/TraCuuMST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E915440-F8B1-4746-BBA7-DDD355D29FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50A5F16-1C86-B348-B202-E4C1DF6BF793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{FA36CB04-7E34-2643-826C-8C29CE8546B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>cmnd</t>
   </si>
@@ -33,34 +33,601 @@
     <t>name</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ NHƯ PHỤNG</t>
-  </si>
-  <si>
-    <t>PHẠM QUỐC KHÁNH</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ HỒNG</t>
-  </si>
-  <si>
-    <t>HUỲNH THỊ YẾN LINH</t>
-  </si>
-  <si>
-    <t>VÕ THỊ KIM NHÃ</t>
-  </si>
-  <si>
-    <t>312340590</t>
-  </si>
-  <si>
-    <t>241903040</t>
-  </si>
-  <si>
-    <t>025478499</t>
-  </si>
-  <si>
-    <t>079193002660</t>
-  </si>
-  <si>
-    <t>092196000632</t>
+    <t>ONG THỊ MỸ DUNG</t>
+  </si>
+  <si>
+    <t>351853930</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG PHI HÙNG</t>
+  </si>
+  <si>
+    <t>031899467</t>
+  </si>
+  <si>
+    <t>LÂM THỊ PHOL</t>
+  </si>
+  <si>
+    <t>366095301</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THÙY LINH</t>
+  </si>
+  <si>
+    <t>168615273</t>
+  </si>
+  <si>
+    <t>PHẠM VĂN THỊNH</t>
+  </si>
+  <si>
+    <t>173714126</t>
+  </si>
+  <si>
+    <t>LÊ THỊ HỒNG TRÂN</t>
+  </si>
+  <si>
+    <t>264550126</t>
+  </si>
+  <si>
+    <t>PHÙNG THỊ PHƯƠNG ANH</t>
+  </si>
+  <si>
+    <t>036301006735</t>
+  </si>
+  <si>
+    <t>HUỲNH MINH KHA</t>
+  </si>
+  <si>
+    <t>025991700</t>
+  </si>
+  <si>
+    <t>LÊ THỊ THU TRANG</t>
+  </si>
+  <si>
+    <t>251108038</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH HIỆP</t>
+  </si>
+  <si>
+    <t>197298965</t>
+  </si>
+  <si>
+    <t>NGUYỄN TÚ NHẬT</t>
+  </si>
+  <si>
+    <t>001200024060</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THƯƠNG</t>
+  </si>
+  <si>
+    <t>187448888</t>
+  </si>
+  <si>
+    <t>PHẠM VĂN CHÍ</t>
+  </si>
+  <si>
+    <t>272694947</t>
+  </si>
+  <si>
+    <t>LÊ QUỐC LONG</t>
+  </si>
+  <si>
+    <t>038202002857</t>
+  </si>
+  <si>
+    <t>NGUYỄN KIM THẢO</t>
+  </si>
+  <si>
+    <t>341927377</t>
+  </si>
+  <si>
+    <t>NGUYỄN KIM QUỲNH</t>
+  </si>
+  <si>
+    <t>024899052</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ ĐOAN TRINH</t>
+  </si>
+  <si>
+    <t>364161060</t>
+  </si>
+  <si>
+    <t>LÊ MINH SANG</t>
+  </si>
+  <si>
+    <t>381752481</t>
+  </si>
+  <si>
+    <t>TRẦN HÀ QUẾ HÂN</t>
+  </si>
+  <si>
+    <t>264413832</t>
+  </si>
+  <si>
+    <t>NGÔ THỊ MỸ LƯU</t>
+  </si>
+  <si>
+    <t>285595086</t>
+  </si>
+  <si>
+    <t>TRƯƠNG QUỐC ĐẠT</t>
+  </si>
+  <si>
+    <t>022201005515</t>
+  </si>
+  <si>
+    <t>BÙI THỊ VÂN KHÁNH</t>
+  </si>
+  <si>
+    <t>151904558</t>
+  </si>
+  <si>
+    <t>HOÀNG TRUNG KIÊN</t>
+  </si>
+  <si>
+    <t>025157011</t>
+  </si>
+  <si>
+    <t>TRẦN QUANG TÍN</t>
+  </si>
+  <si>
+    <t>331787588</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ CẨM TÚ</t>
+  </si>
+  <si>
+    <t>221485742</t>
+  </si>
+  <si>
+    <t>ĐỖ DIỆU TIÊN</t>
+  </si>
+  <si>
+    <t>301790093</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HUYỀN VY</t>
+  </si>
+  <si>
+    <t>079185003907</t>
+  </si>
+  <si>
+    <t>PHẠM VĂN SƠN</t>
+  </si>
+  <si>
+    <t>125862776</t>
+  </si>
+  <si>
+    <t>PHAN THỊ THANH TRANG</t>
+  </si>
+  <si>
+    <t>301405851</t>
+  </si>
+  <si>
+    <t>BẠCH THỊ DIỄM MY</t>
+  </si>
+  <si>
+    <t>285680350</t>
+  </si>
+  <si>
+    <t>TRẦN VĂN TRUNG</t>
+  </si>
+  <si>
+    <t>125833114</t>
+  </si>
+  <si>
+    <t>NGUYỄN KHẮC QUÝ</t>
+  </si>
+  <si>
+    <t>362406626</t>
+  </si>
+  <si>
+    <t>HOÀNG THU HIỀN</t>
+  </si>
+  <si>
+    <t>001189011275</t>
+  </si>
+  <si>
+    <t>TRƯƠNG THỊ Ý NHI</t>
+  </si>
+  <si>
+    <t>231297695</t>
+  </si>
+  <si>
+    <t>TRẦN BÉ HÂN</t>
+  </si>
+  <si>
+    <t>381690507</t>
+  </si>
+  <si>
+    <t>ĐẶNG DƯƠNG THỊ THÚY</t>
+  </si>
+  <si>
+    <t>241801852</t>
+  </si>
+  <si>
+    <t>TRẦN THANH THẢO</t>
+  </si>
+  <si>
+    <t>365469962</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ KIỀU OANH</t>
+  </si>
+  <si>
+    <t>352338337</t>
+  </si>
+  <si>
+    <t>ĐỖ NGUYỄN THIỆN MINH</t>
+  </si>
+  <si>
+    <t>025868152</t>
+  </si>
+  <si>
+    <t>LÊ ÁNH NGỌC</t>
+  </si>
+  <si>
+    <t>381929496</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM THOA</t>
+  </si>
+  <si>
+    <t>212595430</t>
+  </si>
+  <si>
+    <t>TRẦN NGỌC LÝ</t>
+  </si>
+  <si>
+    <t>233173505</t>
+  </si>
+  <si>
+    <t>NGUYỄN THANH HẰNG</t>
+  </si>
+  <si>
+    <t>241513470</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ QUỲNH NHƯ</t>
+  </si>
+  <si>
+    <t>206220274</t>
+  </si>
+  <si>
+    <t>HỒ TẤN ĐẠT</t>
+  </si>
+  <si>
+    <t>291120300</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MỸ CHÂU</t>
+  </si>
+  <si>
+    <t>225519087</t>
+  </si>
+  <si>
+    <t>PHAN THỊ MINH THÚY</t>
+  </si>
+  <si>
+    <t>241736025</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ MINH THANH</t>
+  </si>
+  <si>
+    <t>251253689</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ THANH XOA</t>
+  </si>
+  <si>
+    <t>191865320</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HỒNG YẾN</t>
+  </si>
+  <si>
+    <t>215504657</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HỒNG DIỄM</t>
+  </si>
+  <si>
+    <t>365918941</t>
+  </si>
+  <si>
+    <t>TRẦN BẢO NGÂN</t>
+  </si>
+  <si>
+    <t>312469570</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ TRÚC NGÂN</t>
+  </si>
+  <si>
+    <t>362250940</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC THẢO</t>
+  </si>
+  <si>
+    <t>079188020488</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MINH GIANG</t>
+  </si>
+  <si>
+    <t>205903226</t>
+  </si>
+  <si>
+    <t>TRẦN NGỌC THANH NGÂN</t>
+  </si>
+  <si>
+    <t>321765516</t>
+  </si>
+  <si>
+    <t>HỨA THỊ PHƯƠNG THẢO</t>
+  </si>
+  <si>
+    <t>366035508</t>
+  </si>
+  <si>
+    <t>NGUYỄN YẾN NHI</t>
+  </si>
+  <si>
+    <t>331865199</t>
+  </si>
+  <si>
+    <t>NGUYỄN TRUNG HUẤN</t>
+  </si>
+  <si>
+    <t>092082002424</t>
+  </si>
+  <si>
+    <t>ĐỖ THỊ TUYẾT LỘC</t>
+  </si>
+  <si>
+    <t>250529506</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ THANH</t>
+  </si>
+  <si>
+    <t>073455553</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN CƯỜNG</t>
+  </si>
+  <si>
+    <t>241695601</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN TƯƠNG</t>
+  </si>
+  <si>
+    <t>191594737</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ HIỀN</t>
+  </si>
+  <si>
+    <t>212464014</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ HÀ GIANG</t>
+  </si>
+  <si>
+    <t>025979982</t>
+  </si>
+  <si>
+    <t>ĐỖ THỊ THU</t>
+  </si>
+  <si>
+    <t>035187000511</t>
+  </si>
+  <si>
+    <t>BÙI THỊ BĂNG</t>
+  </si>
+  <si>
+    <t>301557487</t>
+  </si>
+  <si>
+    <t>LÊ MAI THÚY LIỄU</t>
+  </si>
+  <si>
+    <t>212281962</t>
+  </si>
+  <si>
+    <t>TỐNG NGỌC HIỀN</t>
+  </si>
+  <si>
+    <t>281939337</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ CẨM NHUNG</t>
+  </si>
+  <si>
+    <t>352551467</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN MẠNH</t>
+  </si>
+  <si>
+    <t>371384142</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HOÀNG ANH</t>
+  </si>
+  <si>
+    <t>092198003201</t>
+  </si>
+  <si>
+    <t>NGUYỄN NHỰT MINH THƯ</t>
+  </si>
+  <si>
+    <t>301816160</t>
+  </si>
+  <si>
+    <t>NGUYỄN LÊ QUÂN</t>
+  </si>
+  <si>
+    <t>212702773</t>
+  </si>
+  <si>
+    <t>HUỲNH HUỲNH</t>
+  </si>
+  <si>
+    <t>321522279</t>
+  </si>
+  <si>
+    <t>BÙI THỊ THÙY LINH</t>
+  </si>
+  <si>
+    <t>026198002924</t>
+  </si>
+  <si>
+    <t>NGÔ HOÀNG MI MI</t>
+  </si>
+  <si>
+    <t>285885254</t>
+  </si>
+  <si>
+    <t>TRẦN ANH VĨNH</t>
+  </si>
+  <si>
+    <t>026016154</t>
+  </si>
+  <si>
+    <t>HÀ VĂN HOÀNG</t>
+  </si>
+  <si>
+    <t>152218819</t>
+  </si>
+  <si>
+    <t>NGUYỄN TUẤN VŨ</t>
+  </si>
+  <si>
+    <t>352409297</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG KHƯƠNG</t>
+  </si>
+  <si>
+    <t>025649929</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG</t>
+  </si>
+  <si>
+    <t>095210091</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG QUÂN</t>
+  </si>
+  <si>
+    <t>012850338</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÚY NGA</t>
+  </si>
+  <si>
+    <t>036192000252</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ THU HUỆ</t>
+  </si>
+  <si>
+    <t>079199010230</t>
+  </si>
+  <si>
+    <t>191507544</t>
+  </si>
+  <si>
+    <t>NGUYỄN QUỲNH ĐOAN VY</t>
+  </si>
+  <si>
+    <t>079199008346</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THẢO NGUYÊN</t>
+  </si>
+  <si>
+    <t>250998521</t>
+  </si>
+  <si>
+    <t>VÕ QUANG THÁI</t>
+  </si>
+  <si>
+    <t>241806101</t>
+  </si>
+  <si>
+    <t>HOÀNG THANH TÙNG</t>
+  </si>
+  <si>
+    <t>024711239</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐỨC BÌNH</t>
+  </si>
+  <si>
+    <t>101257511</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM THỦY</t>
+  </si>
+  <si>
+    <t>341771886</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ HUYỀN TRANG</t>
+  </si>
+  <si>
+    <t>001199012943</t>
+  </si>
+  <si>
+    <t>NGÔ THỊ THU TRÀ</t>
+  </si>
+  <si>
+    <t>001192007946</t>
+  </si>
+  <si>
+    <t>ĐỖ THANH DOAN</t>
+  </si>
+  <si>
+    <t>151922122</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM QUYÊN</t>
+  </si>
+  <si>
+    <t>261486103</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN DŨNG</t>
+  </si>
+  <si>
+    <t>366226429</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ THẢO</t>
+  </si>
+  <si>
+    <t>276015940</t>
+  </si>
+  <si>
+    <t>HUỲNH DUY NAM</t>
+  </si>
+  <si>
+    <t>272570566</t>
+  </si>
+  <si>
+    <t>TRẦN QUỐC MẠNH</t>
+  </si>
+  <si>
+    <t>301458222</t>
   </si>
 </sst>
 </file>
@@ -449,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D37354-EAE8-DA45-BC10-CA884EB11D66}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,39 +1041,799 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
